--- a/Longitudinal_induction_analysis/LDCT/LDCT_longitudinal.xlsx
+++ b/Longitudinal_induction_analysis/LDCT/LDCT_longitudinal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annastuckert/Documents/TDP control files/Longitudinal induction analysis/LDCT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annastuckert/Documents/GitHub/TDPBehaviorAnalysis/Longitudinal_induction_analysis/LDCT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207F717-691E-944E-B947-617B6E8ED0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478EC747-6DF7-5D4E-AEFA-B3B9E3665BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="14780" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9580" yWindow="500" windowWidth="14780" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>Distance moved cm</t>
   </si>
@@ -74,6 +74,30 @@
   </si>
   <si>
     <t>1st week post induction</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>2nd week post induction</t>
   </si>
 </sst>
 </file>
@@ -416,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -838,6 +862,420 @@
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1478.32</v>
+      </c>
+      <c r="C19">
+        <v>8.0579800000000006</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>184.76</v>
+      </c>
+      <c r="F19">
+        <v>13.3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2192.23</v>
+      </c>
+      <c r="C20">
+        <v>8.0383800000000001</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>275.08</v>
+      </c>
+      <c r="F20">
+        <v>3.82</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>2601.36</v>
+      </c>
+      <c r="C21">
+        <v>8.0462699999999998</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>325.58</v>
+      </c>
+      <c r="F21">
+        <v>16.68</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>3181.81</v>
+      </c>
+      <c r="C22">
+        <v>8.9932499999999997</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>356.04</v>
+      </c>
+      <c r="F22">
+        <v>8.1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>3072.97</v>
+      </c>
+      <c r="C23">
+        <v>8.4603599999999997</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>365.64</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1473.44</v>
+      </c>
+      <c r="C24">
+        <v>7.6821900000000003</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>193.68</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>2108.71</v>
+      </c>
+      <c r="C25">
+        <v>6.2740400000000003</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>338.12</v>
+      </c>
+      <c r="F25">
+        <v>17.64</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>2971.73</v>
+      </c>
+      <c r="C26">
+        <v>9.3503600000000002</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>319.48</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>667.43399999999997</v>
+      </c>
+      <c r="C27">
+        <v>5.3643599999999996</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>126.8</v>
+      </c>
+      <c r="F27">
+        <v>32.92</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>1887.67</v>
+      </c>
+      <c r="C28">
+        <v>8.3201099999999997</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>228.16</v>
+      </c>
+      <c r="F28">
+        <v>18.46</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>1196.44</v>
+      </c>
+      <c r="C29">
+        <v>8.5131499999999996</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>142.1</v>
+      </c>
+      <c r="F29">
+        <v>10.88</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>2217.9699999999998</v>
+      </c>
+      <c r="C30">
+        <v>7.3892899999999999</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>302.77999999999997</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>2299.56</v>
+      </c>
+      <c r="C31">
+        <v>6.5600500000000004</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>352.04</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>836.46199999999999</v>
+      </c>
+      <c r="C32">
+        <v>5.4850000000000003</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>154.52000000000001</v>
+      </c>
+      <c r="F32">
+        <v>21.92</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>4078.39</v>
+      </c>
+      <c r="C33">
+        <v>11.3062</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>362.5</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>2413.92</v>
+      </c>
+      <c r="C34">
+        <v>9.2360100000000003</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>263.08</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>1531.33</v>
+      </c>
+      <c r="C35">
+        <v>6.9090800000000003</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>224.52</v>
+      </c>
+      <c r="F35">
+        <v>11.22</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>1893.1</v>
+      </c>
+      <c r="C36">
+        <v>6.6220100000000004</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>289.02</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
